--- a/cfg/excel/gallery_cfg.xlsx
+++ b/cfg/excel/gallery_cfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DrunkFrog\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA6E8C-6054-4601-B449-6D6543329771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01439A2F-C75F-4849-BD31-9018E22E73A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +276,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -335,17 +328,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,16 +646,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
@@ -677,697 +667,669 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>22</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>26</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
-        <v>32</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>53</v>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{29BDC3BE-C997-4B8E-AA81-080CA09E9609}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{2D2EF2B2-77B9-4088-96F3-50614B5B3382}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{03DC79A0-0AAF-4398-92A9-5C2BCC1126BA}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{91366029-A43F-4CC3-A3B9-2F15D809E0F9}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{D0172970-2F70-4282-A16A-B1C63F0C0E63}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{C1C94E55-EE0C-44AD-AF11-C851968E707D}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{BD475906-BD68-43DE-AAC0-E4EDB5CCB58C}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{5EC85DB5-557D-4045-8284-CF47F664AA9B}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{FCFF3EC7-5735-4C00-A0CB-57405F2F262E}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{DDF80192-69F8-47A5-8057-71F23024EB34}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{2EA6A330-1BCE-4396-A30B-27433E3F141C}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{DF186EDF-CEA2-48E0-991C-30628060DC40}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{6155F8C3-7F68-4E65-A7D0-945566326702}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{2B54E101-9F72-4B91-A47E-3A84D024AAEE}"/>
-    <hyperlink ref="C28" r:id="rId15" xr:uid="{C8CA997F-7E37-40DB-922C-532D6D2D0A44}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{6AA6AA04-757F-4E0D-9514-89A45586280F}"/>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{29BDC3BE-C997-4B8E-AA81-080CA09E9609}"/>
+    <hyperlink ref="C36" r:id="rId2" xr:uid="{2D2EF2B2-77B9-4088-96F3-50614B5B3382}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{03DC79A0-0AAF-4398-92A9-5C2BCC1126BA}"/>
+    <hyperlink ref="C34" r:id="rId4" xr:uid="{91366029-A43F-4CC3-A3B9-2F15D809E0F9}"/>
+    <hyperlink ref="C33" r:id="rId5" xr:uid="{D0172970-2F70-4282-A16A-B1C63F0C0E63}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{C1C94E55-EE0C-44AD-AF11-C851968E707D}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{BD475906-BD68-43DE-AAC0-E4EDB5CCB58C}"/>
+    <hyperlink ref="C30" r:id="rId8" xr:uid="{5EC85DB5-557D-4045-8284-CF47F664AA9B}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{FCFF3EC7-5735-4C00-A0CB-57405F2F262E}"/>
+    <hyperlink ref="C28" r:id="rId10" xr:uid="{DDF80192-69F8-47A5-8057-71F23024EB34}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{2EA6A330-1BCE-4396-A30B-27433E3F141C}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{DF186EDF-CEA2-48E0-991C-30628060DC40}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{6155F8C3-7F68-4E65-A7D0-945566326702}"/>
+    <hyperlink ref="C24" r:id="rId14" xr:uid="{2B54E101-9F72-4B91-A47E-3A84D024AAEE}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{C8CA997F-7E37-40DB-922C-532D6D2D0A44}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{6AA6AA04-757F-4E0D-9514-89A45586280F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
